--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562370.5670887565</v>
+        <v>-565071.783740213</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>32.55518202532693</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015061</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>25.67913628361553</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>65.395245261935</v>
+        <v>22.49522744601709</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.08532299094963</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>138.95404476349</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>26.1730764197789</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863705</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>38.67405339707304</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22.87324125460788</v>
       </c>
       <c r="F6" t="n">
-        <v>43.34492063958746</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333229</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951728</v>
+        <v>36.27346476951737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713792</v>
+        <v>4.360182258713962</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.6144454768469</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643664</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>244.0559847419029</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.1935676851976</v>
+        <v>232.0625695956394</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>43.29563560137161</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>154.9963828846682</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>263.4475962805192</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>26.42410927683403</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>50.04039518888509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>65.27979873126536</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.890337106877023</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>15.51491006411157</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>11.79076481679223</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>118.670846902995</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>205.6193274744349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>65.56423921895112</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>160.176346405345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428162</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>247.5867185477171</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>70.04554881124426</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.75188085812027</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.91051008678073</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,13 +3791,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999784</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428129</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3587892151035</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="C2" t="n">
-        <v>320.3587892151035</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D2" t="n">
-        <v>320.3587892151035</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E2" t="n">
-        <v>320.3587892151035</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>313.4132884659</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>47.03563189872204</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>47.03563189872204</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4331,19 +4331,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4364,16 +4364,16 @@
         <v>586.7364457822814</v>
       </c>
       <c r="V2" t="n">
-        <v>320.3587892151035</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W2" t="n">
-        <v>320.3587892151035</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X2" t="n">
-        <v>320.3587892151035</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.3587892151035</v>
+        <v>586.7364457822814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="D3" t="n">
         <v>65.46256898749988</v>
@@ -4413,19 +4413,19 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>247.7358133554696</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519934</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>970.4638329179309</v>
+        <v>865.1608858509805</v>
       </c>
       <c r="U3" t="n">
-        <v>970.4638329179309</v>
+        <v>865.1608858509805</v>
       </c>
       <c r="V3" t="n">
-        <v>735.3117246861882</v>
+        <v>630.0087776192379</v>
       </c>
       <c r="W3" t="n">
-        <v>481.0743679579866</v>
+        <v>630.0087776192379</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>422.1572774137051</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>214.3969786487511</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.6256521288109</v>
+        <v>477.28086179916</v>
       </c>
       <c r="C4" t="n">
-        <v>604.6256521288109</v>
+        <v>308.3446788712531</v>
       </c>
       <c r="D4" t="n">
-        <v>454.5090127164751</v>
+        <v>308.3446788712531</v>
       </c>
       <c r="E4" t="n">
-        <v>306.595919134082</v>
+        <v>308.3446788712531</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>161.4547313733428</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4522,16 +4522,16 @@
         <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348206</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W4" t="n">
-        <v>671.3785036348206</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="X4" t="n">
-        <v>671.3785036348206</v>
+        <v>698.0734409426901</v>
       </c>
       <c r="Y4" t="n">
-        <v>671.3785036348206</v>
+        <v>477.28086179916</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>721.523009366791</v>
+        <v>477.4536103869556</v>
       </c>
       <c r="C5" t="n">
-        <v>721.523009366791</v>
+        <v>477.4536103869556</v>
       </c>
       <c r="D5" t="n">
-        <v>363.2573107600405</v>
+        <v>477.4536103869556</v>
       </c>
       <c r="E5" t="n">
-        <v>363.2573107600405</v>
+        <v>477.4536103869556</v>
       </c>
       <c r="F5" t="n">
-        <v>356.311810010837</v>
+        <v>470.5081096377522</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797563</v>
+        <v>444.0706587086826</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523451</v>
+        <v>130.9983022541607</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523451</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275158</v>
+        <v>93.76641159275096</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245565</v>
+        <v>239.0325989245553</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825638</v>
+        <v>456.1499114825619</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748864</v>
+        <v>729.404193174884</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.69382320238</v>
+        <v>1011.693823202377</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798414</v>
+        <v>1264.91665479841</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189411</v>
+        <v>1446.535482189406</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261725</v>
+        <v>1203.68802391815</v>
       </c>
       <c r="W5" t="n">
-        <v>1534.750911261725</v>
+        <v>850.9193686480355</v>
       </c>
       <c r="X5" t="n">
-        <v>1495.686210860641</v>
+        <v>477.4536103869556</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.122849430913</v>
+        <v>477.4536103869556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.2243391481474</v>
+        <v>472.4630820644078</v>
       </c>
       <c r="C6" t="n">
-        <v>397.2243391481474</v>
+        <v>472.4630820644078</v>
       </c>
       <c r="D6" t="n">
-        <v>248.2899294868961</v>
+        <v>472.4630820644078</v>
       </c>
       <c r="E6" t="n">
-        <v>248.2899294868961</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>204.5071813661007</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878733</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878733</v>
+        <v>67.33488162878731</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523451</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626391</v>
+        <v>49.44206107563397</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039496</v>
+        <v>159.6385680169441</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353018</v>
+        <v>354.1339118482956</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060479</v>
+        <v>600.4576725190411</v>
       </c>
       <c r="N6" t="n">
-        <v>992.5396600782706</v>
+        <v>867.7095350912631</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749982</v>
+        <v>1089.972982256781</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.34742594867</v>
+        <v>1469.823832794057</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757974</v>
+        <v>1530.346686757969</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757974</v>
+        <v>1385.878273152064</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757974</v>
+        <v>1189.973630703748</v>
       </c>
       <c r="U6" t="n">
-        <v>1302.225603078578</v>
+        <v>961.8525470243521</v>
       </c>
       <c r="V6" t="n">
-        <v>1067.073494846836</v>
+        <v>726.7004387926095</v>
       </c>
       <c r="W6" t="n">
-        <v>812.8361381186342</v>
+        <v>472.4630820644078</v>
       </c>
       <c r="X6" t="n">
-        <v>604.9846379131013</v>
+        <v>472.4630820644078</v>
       </c>
       <c r="Y6" t="n">
-        <v>397.2243391481474</v>
+        <v>472.4630820644078</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7468898190331</v>
+        <v>462.3866265676496</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7468898190331</v>
+        <v>462.3866265676496</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7468898190331</v>
+        <v>327.4225402274002</v>
       </c>
       <c r="E7" t="n">
-        <v>329.83379623664</v>
+        <v>179.509446645007</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9438487387297</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387297</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523451</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523451</v>
+        <v>32.61949914709669</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523451</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.4322756223264</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830391</v>
+        <v>375.1387655830384</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388156</v>
+        <v>615.0688576388145</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974829</v>
+        <v>854.7285647974815</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.26700593402</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715561</v>
+        <v>945.0606656715538</v>
       </c>
       <c r="V7" t="n">
-        <v>945.0606656715561</v>
+        <v>690.376177465667</v>
       </c>
       <c r="W7" t="n">
-        <v>698.5394689625632</v>
+        <v>690.376177465667</v>
       </c>
       <c r="X7" t="n">
-        <v>698.5394689625632</v>
+        <v>462.3866265676496</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7468898190331</v>
+        <v>462.3866265676496</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1126.761759316041</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>1126.761759316041</v>
+        <v>749.4796705208573</v>
       </c>
       <c r="D8" t="n">
-        <v>1126.761759316041</v>
+        <v>749.4796705208573</v>
       </c>
       <c r="E8" t="n">
-        <v>1126.761759316041</v>
+        <v>363.6914179226131</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1126.761759316041</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4881,25 +4881,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.9439354791607</v>
+        <v>665.4733549031288</v>
       </c>
       <c r="C10" t="n">
-        <v>623.9439354791607</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E10" t="n">
         <v>473.8272960668249</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232067</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>805.5924003094004</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X10" t="n">
-        <v>805.5924003094004</v>
+        <v>886.2659340466589</v>
       </c>
       <c r="Y10" t="n">
-        <v>805.5924003094004</v>
+        <v>665.4733549031288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2042.846822881338</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="C11" t="n">
-        <v>1673.884305940927</v>
+        <v>1116.527812193161</v>
       </c>
       <c r="D11" t="n">
-        <v>1315.618607334176</v>
+        <v>758.2621135864108</v>
       </c>
       <c r="E11" t="n">
-        <v>929.8303547359321</v>
+        <v>758.2621135864108</v>
       </c>
       <c r="F11" t="n">
-        <v>518.8444499463246</v>
+        <v>492.1534304747752</v>
       </c>
       <c r="G11" t="n">
-        <v>104.2286853874703</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
@@ -5051,40 +5051,40 @@
         <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796037</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796037</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3876.883295796037</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3545.820408452466</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>3193.051753182352</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2819.585994921272</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2429.44666294546</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5103,34 +5103,34 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J12" t="n">
-        <v>84.53144813504287</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504287</v>
+        <v>84.53144813504173</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929944</v>
+        <v>503.2284887929935</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>1011.185054749522</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
         <v>2014.935408783255</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.9393830626132</v>
+        <v>835.7893828380002</v>
       </c>
       <c r="C13" t="n">
-        <v>573.0032001347064</v>
+        <v>666.8531999100932</v>
       </c>
       <c r="D13" t="n">
-        <v>422.8865607223706</v>
+        <v>516.7365604977574</v>
       </c>
       <c r="E13" t="n">
-        <v>274.9734671399775</v>
+        <v>368.8234669153643</v>
       </c>
       <c r="F13" t="n">
-        <v>128.0835196420671</v>
+        <v>221.933519417454</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592074</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
         <v>710.5788654344813</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177248</v>
+        <v>1848.271275692259</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.787147971361</v>
+        <v>1593.586787486372</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.3699779344</v>
+        <v>1304.169617449412</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.380427036383</v>
+        <v>1238.23042681177</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.5878478928529</v>
+        <v>1017.43784766824</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5279,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400713</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400713</v>
+        <v>853.594109445025</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277356</v>
+        <v>703.4774700326892</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>555.5643764502961</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>408.6744289523858</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4783296672657</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>99.76649850946382</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.960887244719</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703111</v>
+        <v>1204.178757203171</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630047</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>561.5244044401095</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>414.6344569421991</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>247.4383576570791</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>105.7265264992772</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630047</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.8410298377091</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X22" t="n">
-        <v>1003.633608981239</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y22" t="n">
-        <v>782.8410298377091</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188004</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908935</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908935</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908935</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327548</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925703</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490402</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270442</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,19 +6546,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>853.5941094450266</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>703.4774700326908</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>555.5643764502977</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429802</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6929,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270439</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400714</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7570,19 +7570,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637</v>
+        <v>34.43939438637031</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>105.5468419254475</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>223.0281872106951</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>8.609690055160002</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>143.4284494611922</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>263.5533940625407</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>115.7826081680385</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.4298566577718</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253435</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>75.37549921168851</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>151.7319110345163</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.4750715017733</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>62.3554390986496</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.09032791460224</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.6825818796767</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194325</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194227</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.59775584152706</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168699</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600921</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219421</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194255</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194259</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26320,7 +26320,7 @@
         <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
-        <v>238091.5043891787</v>
+        <v>238091.5043891788</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
@@ -26332,19 +26332,19 @@
         <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
         <v>262322.6448992519</v>
@@ -26353,7 +26353,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="P2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657075</v>
+        <v>132804.2190657059</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929372</v>
+        <v>265413.0723929388</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704285</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417436</v>
+        <v>30877.42926417391</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204956</v>
+        <v>65018.34502049599</v>
       </c>
       <c r="M3" t="n">
         <v>81897.4037127308</v>
@@ -26418,7 +26418,7 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213528.7967230444</v>
+        <v>213528.7967230448</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26430,16 +26430,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768896</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26448,16 +26448,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
+        <v>9947.144321768939</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9947.144321768883</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9947.144321768883</v>
+      </c>
+      <c r="P4" t="n">
         <v>9947.144321768921</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768921</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667497</v>
+        <v>72593.65038667485</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.4850673857</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-725735.1749202717</v>
       </c>
       <c r="C6" t="n">
-        <v>-152088.0909695348</v>
+        <v>-152088.0909695335</v>
       </c>
       <c r="D6" t="n">
-        <v>-229442.6800341118</v>
+        <v>-229442.6800341134</v>
       </c>
       <c r="E6" t="n">
-        <v>-170464.8637949067</v>
+        <v>-170685.9951088817</v>
       </c>
       <c r="F6" t="n">
-        <v>-38055.29801685298</v>
+        <v>-38090.03594228829</v>
       </c>
       <c r="G6" t="n">
-        <v>151252.9707535758</v>
+        <v>151218.2328281402</v>
       </c>
       <c r="H6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281402</v>
       </c>
       <c r="I6" t="n">
-        <v>151252.970753576</v>
+        <v>151218.2328281401</v>
       </c>
       <c r="J6" t="n">
-        <v>82253.81633446188</v>
+        <v>82219.07840902617</v>
       </c>
       <c r="K6" t="n">
-        <v>120375.5414894016</v>
+        <v>120340.8035639664</v>
       </c>
       <c r="L6" t="n">
-        <v>86234.62573308028</v>
+        <v>86199.88780764423</v>
       </c>
       <c r="M6" t="n">
-        <v>69355.56704084504</v>
+        <v>69320.82911540945</v>
       </c>
       <c r="N6" t="n">
-        <v>101413.3966215522</v>
+        <v>101378.6586961166</v>
       </c>
       <c r="O6" t="n">
-        <v>151252.9707535758</v>
+        <v>151218.2328281401</v>
       </c>
       <c r="P6" t="n">
-        <v>151252.970753576</v>
+        <v>151218.2328281401</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695752</v>
+        <v>717.3319511695739</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154313</v>
+        <v>383.68772781543</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490094</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000969</v>
+        <v>103.2769374000957</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479639</v>
+        <v>216.7329409479653</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974116</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139252</v>
+        <v>119.9738478139239</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846075</v>
+        <v>256.8971042846088</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.9738478139237</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846075</v>
+        <v>256.897104284609</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489703</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139252</v>
+        <v>119.9738478139239</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846075</v>
+        <v>256.8971042846088</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>332.7177097456806</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442039</v>
@@ -27397,7 +27397,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>89.62748326328158</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>129.4457423229418</v>
+        <v>172.3457601388597</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.7466571909877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>27.92962227505654</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>386.245914557991</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863685</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27673,16 +27673,16 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>331.057047281396</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622242</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27698,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>134.7718392007931</v>
       </c>
       <c r="F6" t="n">
-        <v>101.7242917537964</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.00102754136543</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643507</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>42.46701359468807</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.68247805651384</v>
+        <v>174.813476146072</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9511854972562</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>131.5266154519228</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30511,13 +30511,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365124</v>
+        <v>2.883746537365119</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579058</v>
+        <v>29.53316922579053</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756934</v>
+        <v>244.754382675693</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023592</v>
+        <v>366.8233736023586</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952472</v>
+        <v>455.0768316952464</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791142</v>
+        <v>506.3606591791133</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284029</v>
+        <v>514.554104028402</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974785</v>
+        <v>485.8788493974776</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562769</v>
+        <v>414.6863567562762</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868883</v>
+        <v>311.4121838868877</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277621</v>
+        <v>181.1461434277618</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020784</v>
+        <v>65.71337422020771</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892099</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270407</v>
+        <v>1.542940423270404</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189779</v>
+        <v>53.1231680818977</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453797</v>
+        <v>249.1510419453793</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438657</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874184</v>
+        <v>390.9459133874178</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189117</v>
+        <v>401.293088418911</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348674</v>
+        <v>367.1047769348668</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190657</v>
+        <v>294.6339480190652</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739558</v>
+        <v>196.9549915739555</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392934</v>
+        <v>95.79765189392917</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399197</v>
+        <v>28.65944163399192</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098905</v>
+        <v>6.21913267098904</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572057</v>
+        <v>38.90055892572051</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402927</v>
+        <v>91.45394400402911</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401172</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545448</v>
+        <v>192.3155201545445</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773272</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022535</v>
+        <v>197.9483399022532</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669596</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565111</v>
+        <v>58.162685745651</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101762</v>
+        <v>22.54303853101758</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060659</v>
+        <v>5.526983886060649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864681</v>
+        <v>0.07055724109864669</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>133.9020531506284</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>144.9058654583196</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>153.4895779655505</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900714</v>
+        <v>63.70847814900671</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573786</v>
+        <v>146.733522557378</v>
       </c>
       <c r="L5" t="n">
-        <v>219.31041672526</v>
+        <v>219.3104167252592</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518415</v>
+        <v>276.0144259518406</v>
       </c>
       <c r="N5" t="n">
-        <v>285.141040431812</v>
+        <v>285.1410404318111</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757917</v>
+        <v>255.7806379757909</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010074</v>
+        <v>183.4533610010066</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243879</v>
+        <v>89.10649401243822</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600046</v>
+        <v>18.93640691959553</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710207</v>
+        <v>111.3096029710203</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639921</v>
+        <v>196.4599432639915</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654001</v>
+        <v>248.8118794653994</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355784</v>
+        <v>269.9513763355777</v>
       </c>
       <c r="O6" t="n">
-        <v>330.0553744158705</v>
+        <v>224.5085324904223</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047355</v>
+        <v>383.68772781543</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793431</v>
+        <v>65.58290754309397</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142346</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148609</v>
+        <v>219.9055454148606</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.3536283391678</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814821</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809996</v>
+        <v>207.4224586809993</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609594</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491146</v>
+        <v>22.15508137491128</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.064426483961742</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.064426483960579</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295315</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
